--- a/percentiles_94.xlsx
+++ b/percentiles_94.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia\Documents\GitHub\ENIGH_1984\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F2A0EA-C582-4766-BAE9-458B6311266B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2FE443-8A8D-43CD-AAB2-E72123246FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44715" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,11 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +422,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +442,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>5793.8421147420158</v>
       </c>
     </row>
